--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swalker\Documents\GitHub\fme-desktop-gis-and-cad-integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swalker\Documents\GitHub\fme-desktop-data-integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="94">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -69,12 +69,6 @@
     <t>DesktopBasic1Basics</t>
   </si>
   <si>
-    <t>CADGIS0About</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture</t>
-  </si>
-  <si>
     <t>1.02.FMEDesktopComponents.md</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>1.Exercise1.md</t>
   </si>
   <si>
-    <t>CADGIS3LabExercises</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -252,24 +243,6 @@
     <t>LabExercises</t>
   </si>
   <si>
-    <t>GettingStartedwithAutoCAD</t>
-  </si>
-  <si>
-    <t>HandlingBlocksInDWG</t>
-  </si>
-  <si>
-    <t>GroupingEntitiesInDWG</t>
-  </si>
-  <si>
-    <t>ExplodingBlockEntitiesInDWG</t>
-  </si>
-  <si>
-    <t>PreservingBlockEntitiesInDWG</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemonstration</t>
-  </si>
-  <si>
     <t>LabDemonstration</t>
   </si>
   <si>
@@ -279,12 +252,6 @@
     <t>LabQuestions</t>
   </si>
   <si>
-    <t>DWGToDGN</t>
-  </si>
-  <si>
-    <t>SHPToDWG</t>
-  </si>
-  <si>
     <t>GettingStartedWithFMEDesktop</t>
   </si>
   <si>
@@ -318,10 +285,22 @@
     <t>25</t>
   </si>
   <si>
-    <t>CADGISIntegration</t>
-  </si>
-  <si>
     <t>section</t>
+  </si>
+  <si>
+    <t>DataIntegrationScenario</t>
+  </si>
+  <si>
+    <t>Integration0About</t>
+  </si>
+  <si>
+    <t>Integration1Lecture</t>
+  </si>
+  <si>
+    <t>Integration2LabDemonstration</t>
+  </si>
+  <si>
+    <t>Integration3LabExercises</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,25 +1128,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1179,7 +1158,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1188,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
@@ -1203,55 +1182,55 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>F2&amp;"/"&amp;G2</f>
-        <v>CADGIS0About/0.00.AboutThisDocument.md</v>
+        <v>Integration0About/0.00.AboutThisDocument.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G38" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G37" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H57" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H50" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I57" si="2">F3&amp;"/"&amp;G3</f>
-        <v>CADGIS0About/0.01.CourseOverview.md</v>
+        <f t="shared" ref="I3:I50" si="2">F3&amp;"/"&amp;G3</f>
+        <v>Integration0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1263,25 +1242,25 @@
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS0About/0.02.CourseResources.md</v>
+        <v>Integration0About/0.02.CourseResources.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1289,25 +1268,25 @@
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.00.Lecture.md</v>
+        <v>Integration1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1319,7 +1298,7 @@
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.01.DataIntegration.md</v>
+        <v>Integration1Lecture/1.01.DataIntegration.md</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1327,19 +1306,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1351,27 +1330,27 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
+        <v>Integration1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1383,60 +1362,60 @@
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
+        <v>Integration1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.04.WhatIsDataTransformation.md</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration1Lecture/1.04.WhatIsDataTransformation.md</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.05.CADGISIntegration.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1444,36 +1423,39 @@
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.CADGISIntegration.md</v>
+        <v>Integration2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>83</v>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
+        <v>Integration2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1481,31 +1463,31 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
+        <v>Integration2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1513,31 +1495,31 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>Integration2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1545,31 +1527,31 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>Integration2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1577,31 +1559,31 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>Integration2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1609,31 +1591,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>Integration2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1641,31 +1623,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>Integration2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1673,31 +1655,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>Integration2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1705,31 +1687,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>Integration2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1737,31 +1719,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>Integration2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1769,31 +1751,31 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>Integration2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1801,31 +1783,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>Integration2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1833,31 +1815,31 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>Integration2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1865,473 +1847,473 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>Integration2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>2.15.StructuralTransformation.md</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <f>IF(ISBLANK(A25),"",A25&amp;"/"&amp;B25)</f>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
+        <f>F25&amp;"/"&amp;G25</f>
+        <v>Integration2LabDemonstration/2.15.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.15.StructuralTransformation.md</v>
+        <v>2.16.SchemaEditing.md</v>
       </c>
       <c r="H26" s="2" t="str">
         <f>IF(ISBLANK(A26),"",A26&amp;"/"&amp;B26)</f>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>F26&amp;"/"&amp;G26</f>
-        <v>CADGIS2LabDemonstration/2.15.StructuralTransformation.md</v>
+        <v>Integration2LabDemonstration/2.16.SchemaEditing.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.SchemaEditing.md</v>
+        <v>2.17.SchemaMapping.md</v>
       </c>
       <c r="H27" s="2" t="str">
         <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>F27&amp;"/"&amp;G27</f>
-        <v>CADGIS2LabDemonstration/2.16.SchemaEditing.md</v>
+        <v>Integration2LabDemonstration/2.17.SchemaMapping.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.SchemaMapping.md</v>
+        <v>2.18.TransformationWithTransformers.md</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>IF(ISBLANK(A28),"",A28&amp;"/"&amp;B28)</f>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f>F28&amp;"/"&amp;G28</f>
-        <v>CADGIS2LabDemonstration/2.17.SchemaMapping.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration2LabDemonstration/2.18.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.TransformationWithTransformers.md</v>
+        <v>2.19.ContentTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.TransformationWithTransformers.md</v>
+        <v>Integration2LabDemonstration/2.19.ContentTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.ContentTransformation.md</v>
+        <v>2.20.TransformersInSeries.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.ContentTransformation.md</v>
+        <v>Integration2LabDemonstration/2.20.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.TransformersInSeries.md</v>
+        <v>2.21.FeatureCounts.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.TransformersInSeries.md</v>
+        <v>Integration2LabDemonstration/2.21.FeatureCounts.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.FeatureCounts.md</v>
+        <v>2.22.TransformersInParallel.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.FeatureCounts.md</v>
+        <v>Integration2LabDemonstration/2.22.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.TransformersInParallel.md</v>
+        <v>2.23.GroupByProcessing.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
+        <v>Integration2LabDemonstration/2.23.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.23.GroupByProcessing.md</v>
+        <v>2.24.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
+        <v>Integration2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.24.DataInspectionFromWorkbench.md</v>
+        <v>2.25.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
+        <v>Integration2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.25.CoordinateSystemTransformation.md</v>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+        <v/>
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
+        <v>Integration3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" ref="G38:G50" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>Integration3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2339,31 +2321,31 @@
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" ref="G39:G57" si="3">IF(ISBLANK(A39),C39&amp;"."&amp;E39&amp;"."&amp;B39&amp;".md",C39&amp;"."&amp;E39&amp;"."&amp;RIGHT(B39,LEN(B39)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="3"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <v>Integration3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2371,31 +2353,31 @@
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <v>Integration3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2403,302 +2385,299 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <v>Integration3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
+        <v>3.07.Exercise1.md</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <v>Integration3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <v>Integration3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
+        <v>Integration3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
+        <v>Integration3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
+        <v>Integration3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
+        <v>Integration3LabExercises/3.12.Exercise6.md</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" ref="G49" si="4">IF(ISBLANK(A49),C49&amp;"."&amp;E49&amp;"."&amp;B49&amp;".md",C49&amp;"."&amp;E49&amp;"."&amp;RIGHT(B49,LEN(B49)-2))</f>
+        <v>3.13.DataIntegrationScenario.md</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f t="shared" ref="H49" si="5">IF(ISBLANK(A49),"",A49&amp;"/"&amp;B49)</f>
+        <v/>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" ref="I49" si="6">F49&amp;"/"&amp;G49</f>
+        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
-      </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
+        <v>3.14.LabQuestions.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2706,210 +2685,7 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.20.LabQuestions.md</v>
-      </c>
-      <c r="H57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
+        <v>Integration3LabExercises/3.14.LabQuestions.md</v>
       </c>
     </row>
   </sheetData>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -231,12 +231,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>CourseOverview</t>
-  </si>
-  <si>
-    <t>CourseResources</t>
-  </si>
-  <si>
     <t>Lecture</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>Integration3LabExercises</t>
+  </si>
+  <si>
+    <t>ModuleOverview</t>
+  </si>
+  <si>
+    <t>ModuleResources</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,25 +1128,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1158,7 +1158,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
@@ -1188,7 +1188,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1200,11 +1200,11 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G37" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
-        <v>0.01.CourseOverview.md</v>
+        <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" ref="H3:H50" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
@@ -1212,13 +1212,13 @@
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I50" si="2">F3&amp;"/"&amp;G3</f>
-        <v>Integration0About/0.01.CourseOverview.md</v>
+        <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1230,11 +1230,11 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.02.CourseResources.md</v>
+        <v>0.02.ModuleResources.md</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1242,13 +1242,13 @@
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration0About/0.02.CourseResources.md</v>
+        <v>Integration0About/0.02.ModuleResources.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
@@ -1260,7 +1260,7 @@
         <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1274,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>65</v>
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1350,7 +1350,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1382,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
@@ -1411,7 +1411,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1443,7 +1443,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1475,7 +1475,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1539,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1571,7 +1571,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1603,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1635,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1667,7 +1667,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1699,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1731,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1763,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1795,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1827,7 +1827,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1891,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1923,7 +1923,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1955,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2019,7 +2019,7 @@
         <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2051,7 +2051,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2083,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2115,7 +2115,7 @@
         <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2144,10 +2144,10 @@
         <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2176,10 +2176,10 @@
         <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2208,10 +2208,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>69</v>
@@ -2240,7 +2240,7 @@
         <v>68</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>69</v>
@@ -2269,7 +2269,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2301,7 +2301,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" ref="G38:G50" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
@@ -2333,7 +2333,7 @@
         <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2365,7 +2365,7 @@
         <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2397,7 +2397,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2415,7 +2415,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>69</v>
@@ -2427,7 +2427,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2455,7 +2455,7 @@
         <v>26</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2487,7 +2487,7 @@
         <v>27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2519,7 +2519,7 @@
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2551,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2583,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2615,7 +2615,7 @@
         <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>69</v>
@@ -2644,7 +2644,7 @@
         <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" ref="G49" si="4">IF(ISBLANK(A49),C49&amp;"."&amp;E49&amp;"."&amp;B49&amp;".md",C49&amp;"."&amp;E49&amp;"."&amp;RIGHT(B49,LEN(B49)-2))</f>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
@@ -2673,7 +2673,7 @@
         <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -301,6 +301,69 @@
   </si>
   <si>
     <t>ModuleResources</t>
+  </si>
+  <si>
+    <t>DesktopBasic3WorkspaceDesign</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>DesktopBasic5BestPractice</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3.10.IntegratedInspection.md</t>
+  </si>
+  <si>
+    <t>3.11.PartialRuns.md</t>
+  </si>
+  <si>
+    <t>5.01.Style.md</t>
+  </si>
+  <si>
+    <t>5.02.AnnotatingWorkspaces.md</t>
+  </si>
+  <si>
+    <t>5.03.Bookmarks.md</t>
+  </si>
+  <si>
+    <t>5.04.BookmarksForDesign.md</t>
+  </si>
+  <si>
+    <t>5.05.BookmarksForAccess.md</t>
+  </si>
+  <si>
+    <t>5.06.BookmarksForEditing.md</t>
+  </si>
+  <si>
+    <t>5.07.BookmarksForPerformance.md</t>
+  </si>
+  <si>
+    <t>kc_link</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,7 +1189,7 @@
     <col min="9" max="9" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1154,8 +1217,11 @@
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>82</v>
@@ -1185,7 +1251,7 @@
         <v>Integration0About/0.00.AboutThisDocument.md</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>92</v>
@@ -1203,19 +1269,19 @@
         <v>88</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G37" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G46" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H50" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H59" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I50" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I59" si="2">F3&amp;"/"&amp;G3</f>
         <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>93</v>
@@ -1245,7 +1311,7 @@
         <v>Integration0About/0.02.ModuleResources.md</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>70</v>
@@ -1271,7 +1337,7 @@
         <v>Integration1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
@@ -1301,7 +1367,7 @@
         <v>Integration1Lecture/1.01.DataIntegration.md</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1399,7 @@
         <v>Integration1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1365,7 +1431,7 @@
         <v>Integration1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1397,7 +1463,7 @@
         <v>Integration1Lecture/1.04.WhatIsDataTransformation.md</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -1426,7 +1492,7 @@
         <v>Integration2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1524,7 @@
         <v>Integration2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1556,7 @@
         <v>Integration2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,7 +1588,7 @@
         <v>Integration2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1554,7 +1620,7 @@
         <v>Integration2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1652,7 @@
         <v>Integration2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2227,351 +2293,357 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>71</v>
+      <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
+        <v>2.26.IntegratedInspection.md</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="H36:H44" si="3">IF(ISBLANK(A36),"",A36&amp;"/"&amp;B36)</f>
+        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.00.LabExercises.md</v>
+        <f t="shared" ref="I36:I44" si="4">F36&amp;"/"&amp;G36</f>
+        <v>Integration2LabDemonstration/2.26.IntegratedInspection.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>75</v>
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>2.27.PartialRuns.md</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>DesktopBasic3WorkspaceDesign/3.11.PartialRuns.md</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.27.PartialRuns.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" ref="G38:G50" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="0"/>
+        <v>2.28.Style.md</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <f t="shared" si="3"/>
+        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.02.Exercise1.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.28.Style.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.29.AnnotatingWorkspaces.md</v>
+      </c>
+      <c r="H39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
-      </c>
-      <c r="H39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.03.Exercise2.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.29.AnnotatingWorkspaces.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.30.Bookmarks.md</v>
+      </c>
+      <c r="H40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
-      </c>
-      <c r="H40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic5BestPractice/5.03.Bookmarks.md</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.04.Exercise3.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.30.Bookmarks.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.31.BookmarksForDesign.md</v>
+      </c>
+      <c r="H41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
-      </c>
-      <c r="H41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>DesktopBasic5BestPractice/5.04.BookmarksForDesign.md</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.05.Exercise4.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.31.BookmarksForDesign.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.32.BookmarksForAccess.md</v>
+      </c>
+      <c r="H42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
+        <v>DesktopBasic5BestPractice/5.05.BookmarksForAccess.md</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.32.BookmarksForAccess.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.33.BookmarksForEditing.md</v>
+      </c>
+      <c r="H43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>DesktopBasic5BestPractice/5.06.BookmarksForEditing.md</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.07.Exercise1.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.33.BookmarksForEditing.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
+      <c r="A44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.34.BookmarksForPerformance.md</v>
+      </c>
+      <c r="H44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
-      </c>
-      <c r="H44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic5BestPractice/5.07.BookmarksForPerformance.md</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.08.Exercise2.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.34.BookmarksForPerformance.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <f t="shared" si="0"/>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v/>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.09.Exercise3.md</v>
+        <v>Integration3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v/>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.10.Exercise4.md</v>
+        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>69</v>
@@ -2580,30 +2652,30 @@
         <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <f t="shared" ref="G47:G59" si="5">IF(ISBLANK(A47),C47&amp;"."&amp;E47&amp;"."&amp;B47&amp;".md",C47&amp;"."&amp;E47&amp;"."&amp;RIGHT(B47,LEN(B47)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.11.Exercise5.md</v>
+        <v>Integration3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>63</v>
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>69</v>
@@ -2612,27 +2684,30 @@
         <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
+        <f t="shared" si="5"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>87</v>
+        <v>Integration3LabExercises/3.03.Exercise2.md</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>69</v>
@@ -2641,49 +2716,328 @@
         <v>66</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" ref="G49" si="4">IF(ISBLANK(A49),C49&amp;"."&amp;E49&amp;"."&amp;B49&amp;".md",C49&amp;"."&amp;E49&amp;"."&amp;RIGHT(B49,LEN(B49)-2))</f>
-        <v>3.13.DataIntegrationScenario.md</v>
+        <f t="shared" si="5"/>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f t="shared" ref="H49" si="5">IF(ISBLANK(A49),"",A49&amp;"/"&amp;B49)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" ref="I49" si="6">F49&amp;"/"&amp;G49</f>
-        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.04.Exercise3.md</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>3.05.Exercise4.md</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.05.Exercise4.md</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.06.DataTransformation.md</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.07.Exercise1.md</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.07.Exercise1.md</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.08.Exercise2.md</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.08.Exercise2.md</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.09.Exercise3.md</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.09.Exercise3.md</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.10.Exercise4.md</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.10.Exercise4.md</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.11.Exercise5.md</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.11.Exercise5.md</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>3.12.Exercise6.md</v>
+      </c>
+      <c r="H57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.12.Exercise6.md</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="2" t="str">
+        <f t="shared" ref="G58" si="6">IF(ISBLANK(A58),C58&amp;"."&amp;E58&amp;"."&amp;B58&amp;".md",C58&amp;"."&amp;E58&amp;"."&amp;RIGHT(B58,LEN(B58)-2))</f>
+        <v>3.13.DataIntegrationScenario.md</v>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f t="shared" ref="H58" si="7">IF(ISBLANK(A58),"",A58&amp;"/"&amp;B58)</f>
+        <v/>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f t="shared" ref="I58" si="8">F58&amp;"/"&amp;G58</f>
+        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>3.14.LabQuestions.md</v>
       </c>
-      <c r="H50" s="2" t="str">
+      <c r="H59" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="I59" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.14.LabQuestions.md</v>
       </c>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="115">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -123,9 +123,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>2.00.DataTransformation.md</t>
-  </si>
-  <si>
     <t>2.01.WhatIsDataTransformation.md</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>kc_link</t>
+  </si>
+  <si>
+    <t>1.03.DataTransformation.md</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1186,30 +1186,30 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="32.36328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="51.36328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="9" max="9" width="63.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1218,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
@@ -1254,49 +1254,49 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G46" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G45" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H59" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H58" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I59" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I58" si="2">F3&amp;"/"&amp;G3</f>
         <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1314,19 +1314,19 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1340,19 +1340,19 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1375,16 +1375,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1401,42 +1401,38 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.03.DataTransformation.md</v>
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>F8&amp;"/"&amp;G8</f>
         <v>Integration1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>65</v>
@@ -1445,51 +1441,54 @@
         <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+        <v/>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration1Lecture/1.04.WhatIsDataTransformation.md</v>
+        <v>Integration2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>72</v>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.00.LabDemonstration.md</v>
+        <v>Integration2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1497,31 +1496,31 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.01.FMEDesktopComponents.md</v>
+        <v>Integration2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1529,31 +1528,31 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>Integration2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1561,31 +1560,31 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.03.WindowControl.md</v>
+        <v>Integration2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1593,31 +1592,31 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>Integration2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1625,31 +1624,31 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>Integration2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1657,31 +1656,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>Integration2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1689,31 +1688,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>Integration2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1721,31 +1720,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>Integration2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1753,31 +1752,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.09.ViewingData.md</v>
+        <v>Integration2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1785,31 +1784,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.10.QueryingData.md</v>
+        <v>Integration2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1817,31 +1816,31 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>Integration2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1849,31 +1848,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>Integration2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1881,202 +1880,202 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>Integration2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>2.15.StructuralTransformation.md</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <f>IF(ISBLANK(A24),"",A24&amp;"/"&amp;B24)</f>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.14.WriterParameters.md</v>
+        <f>F24&amp;"/"&amp;G24</f>
+        <v>Integration2LabDemonstration/2.15.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.15.StructuralTransformation.md</v>
+        <v>2.16.SchemaEditing.md</v>
       </c>
       <c r="H25" s="2" t="str">
         <f>IF(ISBLANK(A25),"",A25&amp;"/"&amp;B25)</f>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>F25&amp;"/"&amp;G25</f>
-        <v>Integration2LabDemonstration/2.15.StructuralTransformation.md</v>
+        <v>Integration2LabDemonstration/2.16.SchemaEditing.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.SchemaEditing.md</v>
+        <v>2.17.SchemaMapping.md</v>
       </c>
       <c r="H26" s="2" t="str">
         <f>IF(ISBLANK(A26),"",A26&amp;"/"&amp;B26)</f>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>F26&amp;"/"&amp;G26</f>
-        <v>Integration2LabDemonstration/2.16.SchemaEditing.md</v>
+        <v>Integration2LabDemonstration/2.17.SchemaMapping.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.SchemaMapping.md</v>
+        <v>2.18.TransformationWithTransformers.md</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f>F27&amp;"/"&amp;G27</f>
-        <v>Integration2LabDemonstration/2.17.SchemaMapping.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration2LabDemonstration/2.18.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.TransformationWithTransformers.md</v>
+        <v>2.19.ContentTransformation.md</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.18.TransformationWithTransformers.md</v>
+        <v>Integration2LabDemonstration/2.19.ContentTransformation.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>65</v>
@@ -2085,286 +2084,286 @@
         <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.ContentTransformation.md</v>
+        <v>2.20.TransformersInSeries.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.19.ContentTransformation.md</v>
+        <v>Integration2LabDemonstration/2.20.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.TransformersInSeries.md</v>
+        <v>2.21.FeatureCounts.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.20.TransformersInSeries.md</v>
+        <v>Integration2LabDemonstration/2.21.FeatureCounts.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.FeatureCounts.md</v>
+        <v>2.22.TransformersInParallel.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.21.FeatureCounts.md</v>
+        <v>Integration2LabDemonstration/2.22.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.TransformersInParallel.md</v>
+        <v>2.23.GroupByProcessing.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.22.TransformersInParallel.md</v>
+        <v>Integration2LabDemonstration/2.23.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.23.GroupByProcessing.md</v>
+        <v>2.24.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.23.GroupByProcessing.md</v>
+        <v>Integration2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.24.DataInspectionFromWorkbench.md</v>
+        <v>2.25.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
+        <v>Integration2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
+      <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.25.CoordinateSystemTransformation.md</v>
+        <v>2.26.IntegratedInspection.md</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+        <f t="shared" ref="H35:H43" si="3">IF(ISBLANK(A35),"",A35&amp;"/"&amp;B35)</f>
+        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
+        <f t="shared" ref="I35:I43" si="4">F35&amp;"/"&amp;G35</f>
+        <v>Integration2LabDemonstration/2.26.IntegratedInspection.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.26.IntegratedInspection.md</v>
+        <v>2.27.PartialRuns.md</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" ref="H36:H44" si="3">IF(ISBLANK(A36),"",A36&amp;"/"&amp;B36)</f>
-        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
+        <f t="shared" si="3"/>
+        <v>DesktopBasic3WorkspaceDesign/3.11.PartialRuns.md</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" ref="I36:I44" si="4">F36&amp;"/"&amp;G36</f>
-        <v>Integration2LabDemonstration/2.26.IntegratedInspection.md</v>
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.27.PartialRuns.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.27.PartialRuns.md</v>
+        <v>2.28.Style.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic3WorkspaceDesign/3.11.PartialRuns.md</v>
+        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.27.PartialRuns.md</v>
+        <v>Integration2LabDemonstration/2.28.Style.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>65</v>
@@ -2373,269 +2372,269 @@
         <v>98</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.28.Style.md</v>
+        <v>2.29.AnnotatingWorkspaces.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
+        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.28.Style.md</v>
+        <v>Integration2LabDemonstration/2.29.AnnotatingWorkspaces.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.29.AnnotatingWorkspaces.md</v>
+        <v>2.30.Bookmarks.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
+        <v>DesktopBasic5BestPractice/5.03.Bookmarks.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.29.AnnotatingWorkspaces.md</v>
+        <v>Integration2LabDemonstration/2.30.Bookmarks.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.30.Bookmarks.md</v>
+        <v>2.31.BookmarksForDesign.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.03.Bookmarks.md</v>
+        <v>DesktopBasic5BestPractice/5.04.BookmarksForDesign.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.30.Bookmarks.md</v>
+        <v>Integration2LabDemonstration/2.31.BookmarksForDesign.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.31.BookmarksForDesign.md</v>
+        <v>2.32.BookmarksForAccess.md</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.04.BookmarksForDesign.md</v>
+        <v>DesktopBasic5BestPractice/5.05.BookmarksForAccess.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.31.BookmarksForDesign.md</v>
+        <v>Integration2LabDemonstration/2.32.BookmarksForAccess.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.32.BookmarksForAccess.md</v>
+        <v>2.33.BookmarksForEditing.md</v>
       </c>
       <c r="H42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.05.BookmarksForAccess.md</v>
+        <v>DesktopBasic5BestPractice/5.06.BookmarksForEditing.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.32.BookmarksForAccess.md</v>
+        <v>Integration2LabDemonstration/2.33.BookmarksForEditing.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.33.BookmarksForEditing.md</v>
+        <v>2.34.BookmarksForPerformance.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.06.BookmarksForEditing.md</v>
+        <v>DesktopBasic5BestPractice/5.07.BookmarksForPerformance.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.33.BookmarksForEditing.md</v>
+        <v>Integration2LabDemonstration/2.34.BookmarksForPerformance.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>113</v>
+      <c r="B44" t="s">
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.34.BookmarksForPerformance.md</v>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.07.BookmarksForPerformance.md</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.34.BookmarksForPerformance.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.00.LabExercises.md</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" ref="G46:G58" si="5">IF(ISBLANK(A46),C46&amp;"."&amp;E46&amp;"."&amp;B46&amp;".md",C46&amp;"."&amp;E46&amp;"."&amp;RIGHT(B46,LEN(B46)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>Integration3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2643,31 +2642,31 @@
         <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" ref="G47:G59" si="5">IF(ISBLANK(A47),C47&amp;"."&amp;E47&amp;"."&amp;B47&amp;".md",C47&amp;"."&amp;E47&amp;"."&amp;RIGHT(B47,LEN(B47)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="5"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.02.Exercise1.md</v>
+        <v>Integration3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2678,28 +2677,28 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.03.Exercise2.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.03.Exercise2.md</v>
+        <v>Integration3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2710,334 +2709,302 @@
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.04.Exercise3.md</v>
+        <v>Integration3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.05.Exercise4.md</v>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.05.Exercise4.md</v>
+        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>73</v>
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.06.DataTransformation.md</v>
+        <v>3.07.Exercise1.md</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
+        <v>Integration3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.07.Exercise1.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.07.Exercise1.md</v>
+        <v>Integration3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.08.Exercise2.md</v>
+        <v>Integration3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.09.Exercise3.md</v>
+        <v>Integration3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.10.Exercise4.md</v>
+        <v>Integration3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.11.Exercise5.md</v>
+        <v>Integration3LabExercises/3.12.Exercise6.md</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.12.Exercise6.md</v>
+        <f t="shared" ref="G57" si="6">IF(ISBLANK(A57),C57&amp;"."&amp;E57&amp;"."&amp;B57&amp;".md",C57&amp;"."&amp;E57&amp;"."&amp;RIGHT(B57,LEN(B57)-2))</f>
+        <v>3.13.DataIntegrationScenario.md</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <f t="shared" ref="H57" si="7">IF(ISBLANK(A57),"",A57&amp;"/"&amp;B57)</f>
+        <v/>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.12.Exercise6.md</v>
+        <f t="shared" ref="I57" si="8">F57&amp;"/"&amp;G57</f>
+        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" ref="G58" si="6">IF(ISBLANK(A58),C58&amp;"."&amp;E58&amp;"."&amp;B58&amp;".md",C58&amp;"."&amp;E58&amp;"."&amp;RIGHT(B58,LEN(B58)-2))</f>
-        <v>3.13.DataIntegrationScenario.md</v>
-      </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" ref="H58" si="7">IF(ISBLANK(A58),"",A58&amp;"/"&amp;B58)</f>
-        <v/>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f t="shared" ref="I58" si="8">F58&amp;"/"&amp;G58</f>
-        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="2" t="str">
         <f t="shared" si="5"/>
         <v>3.14.LabQuestions.md</v>
       </c>
-      <c r="H59" s="2" t="str">
+      <c r="H58" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I59" s="2" t="str">
+      <c r="I58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.14.LabQuestions.md</v>
       </c>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="97">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
   <si>
-    <t>1.04.WindowControl.md</t>
-  </si>
-  <si>
     <t>1.05.CreatingATranslation.md</t>
   </si>
   <si>
@@ -48,18 +45,9 @@
     <t>1.11.QueryingData.md</t>
   </si>
   <si>
-    <t>1.12.DataInspectorDisplayControl.md</t>
-  </si>
-  <si>
     <t>1.13.BackgroundMaps.md</t>
   </si>
   <si>
-    <t>1.14.ReaderParameters.md</t>
-  </si>
-  <si>
-    <t>1.15.WriterParameters.md</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>2.10.GroupByProcessing.md</t>
   </si>
   <si>
-    <t>2.11.DataInspectionFromWorkbench.md</t>
-  </si>
-  <si>
     <t>2.12.CoordinateSystemTransformation.md</t>
   </si>
   <si>
@@ -303,36 +288,9 @@
     <t>DesktopBasic3WorkspaceDesign</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>DesktopBasic5BestPractice</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>3.10.IntegratedInspection.md</t>
   </si>
   <si>
@@ -346,18 +304,6 @@
   </si>
   <si>
     <t>5.03.Bookmarks.md</t>
-  </si>
-  <si>
-    <t>5.04.BookmarksForDesign.md</t>
-  </si>
-  <si>
-    <t>5.05.BookmarksForAccess.md</t>
-  </si>
-  <si>
-    <t>5.06.BookmarksForEditing.md</t>
-  </si>
-  <si>
-    <t>5.07.BookmarksForPerformance.md</t>
   </si>
   <si>
     <t>kc_link</t>
@@ -1172,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,40 +1137,40 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1233,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
@@ -1254,49 +1200,49 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G45" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G36" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H58" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H49" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I58" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I49" si="2">F3&amp;"/"&amp;G3</f>
         <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1314,19 +1260,19 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1340,19 +1286,19 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1369,22 +1315,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1401,25 +1347,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1432,19 +1378,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1461,22 +1407,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1493,22 +1439,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1525,1486 +1471,1198 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.03.CreatingATranslation.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.03.WindowControl.md</v>
+        <v>Integration2LabDemonstration/2.03.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.04.TheNewWorkspace.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>Integration2LabDemonstration/2.04.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.05.RunningTheWorkspace.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>Integration2LabDemonstration/2.05.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.06.WhatIsDataInspection.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>Integration2LabDemonstration/2.06.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.07.IntroductionToDataInspector.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>Integration2LabDemonstration/2.07.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.08.ViewingData.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>Integration2LabDemonstration/2.08.ViewingData.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.09.QueryingData.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.09.ViewingData.md</v>
+        <v>Integration2LabDemonstration/2.09.QueryingData.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.10.BackgroundMaps.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.10.QueryingData.md</v>
+        <v>Integration2LabDemonstration/2.10.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.11.StructuralTransformation.md</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <f>IF(ISBLANK(A20),"",A20&amp;"/"&amp;B20)</f>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <f>F20&amp;"/"&amp;G20</f>
+        <v>Integration2LabDemonstration/2.11.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.12.SchemaEditing.md</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <f>IF(ISBLANK(A21),"",A21&amp;"/"&amp;B21)</f>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <f>F21&amp;"/"&amp;G21</f>
+        <v>Integration2LabDemonstration/2.12.SchemaEditing.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.13.SchemaMapping.md</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <f>IF(ISBLANK(A22),"",A22&amp;"/"&amp;B22)</f>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.13.ReaderParameters.md</v>
+        <f>F22&amp;"/"&amp;G22</f>
+        <v>Integration2LabDemonstration/2.13.SchemaMapping.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>2.14.ContentTransformation.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.14.WriterParameters.md</v>
+        <v>Integration2LabDemonstration/2.14.ContentTransformation.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15.StructuralTransformation.md</v>
+        <f>IF(ISBLANK(A24),C24&amp;"."&amp;E24&amp;"."&amp;B24&amp;".md",C24&amp;"."&amp;E24&amp;"."&amp;RIGHT(B24,LEN(B24)-5))</f>
+        <v>2.15.TransformationWithTransformers.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f>IF(ISBLANK(A24),"",A24&amp;"/"&amp;B24)</f>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>F24&amp;"/"&amp;G24</f>
-        <v>Integration2LabDemonstration/2.15.StructuralTransformation.md</v>
+        <v>Integration2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.SchemaEditing.md</v>
+        <v>2.16.TransformersInSeries.md</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>IF(ISBLANK(A25),"",A25&amp;"/"&amp;B25)</f>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f>F25&amp;"/"&amp;G25</f>
-        <v>Integration2LabDemonstration/2.16.SchemaEditing.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration2LabDemonstration/2.16.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.SchemaMapping.md</v>
+        <v>2.17.TransformersInParallel.md</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>IF(ISBLANK(A26),"",A26&amp;"/"&amp;B26)</f>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f>F26&amp;"/"&amp;G26</f>
-        <v>Integration2LabDemonstration/2.17.SchemaMapping.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration2LabDemonstration/2.17.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.18.TransformationWithTransformers.md</v>
+        <f>IF(ISBLANK(A27),C27&amp;"."&amp;E27&amp;"."&amp;B27&amp;".md",C27&amp;"."&amp;E27&amp;"."&amp;RIGHT(B27,LEN(B27)-5))</f>
+        <v>2.18.FeatureCounts.md</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.18.TransformationWithTransformers.md</v>
+        <f>F27&amp;"/"&amp;G27</f>
+        <v>Integration2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.ContentTransformation.md</v>
+        <v>2.19.GroupByProcessing.md</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.19.ContentTransformation.md</v>
+        <v>Integration2LabDemonstration/2.19.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.20.TransformersInSeries.md</v>
+        <f>IF(ISBLANK(A29),C29&amp;"."&amp;E29&amp;"."&amp;B29&amp;".md",C29&amp;"."&amp;E29&amp;"."&amp;RIGHT(B29,LEN(B29)-5))</f>
+        <v>2.20.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <f>IF(ISBLANK(A29),"",A29&amp;"/"&amp;B29)</f>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.20.TransformersInSeries.md</v>
+        <f>F29&amp;"/"&amp;G29</f>
+        <v>Integration2LabDemonstration/2.20.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
+      <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.FeatureCounts.md</v>
+        <v>2.21.IntegratedInspection.md</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <f t="shared" ref="H30:H34" si="3">IF(ISBLANK(A30),"",A30&amp;"/"&amp;B30)</f>
+        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.21.FeatureCounts.md</v>
+        <f t="shared" ref="I30:I34" si="4">F30&amp;"/"&amp;G30</f>
+        <v>Integration2LabDemonstration/2.21.IntegratedInspection.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
+      <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.TransformersInParallel.md</v>
+        <v>2.22.PartialRuns.md</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.22.TransformersInParallel.md</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.23.GroupByProcessing.md</v>
-      </c>
-      <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.23.GroupByProcessing.md</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.24.DataInspectionFromWorkbench.md</v>
-      </c>
-      <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.25.CoordinateSystemTransformation.md</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.26.IntegratedInspection.md</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f t="shared" ref="H35:H43" si="3">IF(ISBLANK(A35),"",A35&amp;"/"&amp;B35)</f>
-        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" ref="I35:I43" si="4">F35&amp;"/"&amp;G35</f>
-        <v>Integration2LabDemonstration/2.26.IntegratedInspection.md</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.27.PartialRuns.md</v>
-      </c>
-      <c r="H36" s="2" t="str">
         <f t="shared" si="3"/>
         <v>DesktopBasic3WorkspaceDesign/3.11.PartialRuns.md</v>
       </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.22.PartialRuns.md</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.23.Style.md</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.23.Style.md</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.24.AnnotatingWorkspaces.md</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.24.AnnotatingWorkspaces.md</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.25.Bookmarks.md</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DesktopBasic5BestPractice/5.03.Bookmarks.md</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Integration2LabDemonstration/2.25.Bookmarks.md</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.00.LabExercises.md</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.00.LabExercises.md</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.27.PartialRuns.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.28.Style.md</v>
+        <f t="shared" ref="G37:G49" si="5">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.28.Style.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.29.AnnotatingWorkspaces.md</v>
+        <f t="shared" si="5"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.29.AnnotatingWorkspaces.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.30.Bookmarks.md</v>
+        <f t="shared" si="5"/>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.03.Bookmarks.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.30.Bookmarks.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.31.BookmarksForDesign.md</v>
+        <f t="shared" si="5"/>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.04.BookmarksForDesign.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.31.BookmarksForDesign.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.32.BookmarksForAccess.md</v>
-      </c>
-      <c r="H41" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.05.BookmarksForAccess.md</v>
+        <f t="shared" si="5"/>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.32.BookmarksForAccess.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>111</v>
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.33.BookmarksForEditing.md</v>
+        <f t="shared" si="5"/>
+        <v>3.07.Exercise1.md</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.06.BookmarksForEditing.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.33.BookmarksForEditing.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.34.BookmarksForPerformance.md</v>
+        <f t="shared" si="5"/>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.07.BookmarksForPerformance.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.34.BookmarksForPerformance.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
+        <f t="shared" si="5"/>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.00.LabExercises.md</v>
+        <v>Integration3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" si="5"/>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>Integration3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>18</v>
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" ref="G46:G58" si="5">IF(ISBLANK(A46),C46&amp;"."&amp;E46&amp;"."&amp;B46&amp;".md",C46&amp;"."&amp;E46&amp;"."&amp;RIGHT(B46,LEN(B46)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="5"/>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.02.Exercise1.md</v>
+        <v>Integration3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.03.Exercise2.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.03.Exercise2.md</v>
+        <v>Integration3LabExercises/3.12.Exercise6.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
+      <c r="B48" t="s">
+        <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" ref="G48" si="6">IF(ISBLANK(A48),C48&amp;"."&amp;E48&amp;"."&amp;B48&amp;".md",C48&amp;"."&amp;E48&amp;"."&amp;RIGHT(B48,LEN(B48)-2))</f>
+        <v>3.13.DataIntegrationScenario.md</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" ref="H48" si="7">IF(ISBLANK(A48),"",A48&amp;"/"&amp;B48)</f>
+        <v/>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f t="shared" ref="I48" si="8">F48&amp;"/"&amp;G48</f>
+        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.04.Exercise3.md</v>
-      </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.04.Exercise3.md</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>3.05.Exercise4.md</v>
+        <v>3.14.LabQuestions.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v/>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.05.Exercise4.md</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.06.DataTransformation.md</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.07.Exercise1.md</v>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.07.Exercise1.md</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.08.Exercise2.md</v>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.08.Exercise2.md</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.09.Exercise3.md</v>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.09.Exercise3.md</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.10.Exercise4.md</v>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.10.Exercise4.md</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G55" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.11.Exercise5.md</v>
-      </c>
-      <c r="H55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.11.Exercise5.md</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.12.Exercise6.md</v>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="2" t="str">
-        <f t="shared" ref="G57" si="6">IF(ISBLANK(A57),C57&amp;"."&amp;E57&amp;"."&amp;B57&amp;".md",C57&amp;"."&amp;E57&amp;"."&amp;RIGHT(B57,LEN(B57)-2))</f>
-        <v>3.13.DataIntegrationScenario.md</v>
-      </c>
-      <c r="H57" s="2" t="str">
-        <f t="shared" ref="H57" si="7">IF(ISBLANK(A57),"",A57&amp;"/"&amp;B57)</f>
-        <v/>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f t="shared" ref="I57" si="8">F57&amp;"/"&amp;G57</f>
-        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.14.LabQuestions.md</v>
-      </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.14.LabQuestions.md</v>
       </c>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="97">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -309,7 +309,7 @@
     <t>kc_link</t>
   </si>
   <si>
-    <t>1.03.DataTransformation.md</t>
+    <t>includes</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1185,7 +1185,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",IF(ISBLANK(C2),B2,C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5)))</f>
         <v>0.00.AboutThisDocument.md</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -1215,7 +1215,7 @@
         <v>82</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G36" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G34" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",IF(ISBLANK(C3),B3,C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5)))</f>
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
@@ -1364,8 +1364,9 @@
       <c r="F8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>96</v>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.03.WhatIsDataTransformation.md</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1373,7 +1374,7 @@
       </c>
       <c r="I8" s="2" t="str">
         <f>F8&amp;"/"&amp;G8</f>
-        <v>Integration1Lecture/1.03.DataTransformation.md</v>
+        <v>Integration1Lecture/1.03.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1873,7 +1874,7 @@
         <v>84</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IF(ISBLANK(A24),C24&amp;"."&amp;E24&amp;"."&amp;B24&amp;".md",C24&amp;"."&amp;E24&amp;"."&amp;RIGHT(B24,LEN(B24)-5))</f>
+        <f t="shared" si="0"/>
         <v>2.15.TransformationWithTransformers.md</v>
       </c>
       <c r="H24" s="2" t="str">
@@ -1969,7 +1970,7 @@
         <v>84</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(ISBLANK(A27),C27&amp;"."&amp;E27&amp;"."&amp;B27&amp;".md",C27&amp;"."&amp;E27&amp;"."&amp;RIGHT(B27,LEN(B27)-5))</f>
+        <f t="shared" si="0"/>
         <v>2.18.FeatureCounts.md</v>
       </c>
       <c r="H27" s="2" t="str">
@@ -2033,7 +2034,7 @@
         <v>84</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>IF(ISBLANK(A29),C29&amp;"."&amp;E29&amp;"."&amp;B29&amp;".md",C29&amp;"."&amp;E29&amp;"."&amp;RIGHT(B29,LEN(B29)-5))</f>
+        <f t="shared" si="0"/>
         <v>2.20.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
@@ -2222,7 +2223,7 @@
         <v>85</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(A35),C35&amp;"."&amp;E35&amp;"."&amp;B35&amp;".md",IF(ISBLANK(C35),B35,C35&amp;"."&amp;E35&amp;"."&amp;RIGHT(B35,LEN(B35)-2)))</f>
         <v>3.00.LabExercises.md</v>
       </c>
       <c r="H35" s="2" t="str">
@@ -2251,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G36:G39" si="5">IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",IF(ISBLANK(C36),B36,C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2)))</f>
         <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H36" s="2" t="str">
@@ -2283,7 +2284,7 @@
         <v>85</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" ref="G37:G49" si="5">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <f t="shared" si="5"/>
         <v>3.02.Exercise1.md</v>
       </c>
       <c r="H37" s="2" t="str">
@@ -2366,21 +2367,12 @@
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.05.Exercise4.md</v>
+        <f>IF(ISBLANK(A40),C40&amp;"."&amp;E40&amp;"."&amp;B40&amp;".md",IF(ISBLANK(C40),B40,C40&amp;"."&amp;E40&amp;"."&amp;RIGHT(B40,LEN(B40)-2)))</f>
+        <v>1.Exercise4.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2388,7 +2380,7 @@
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.05.Exercise4.md</v>
+        <v>includes/1.Exercise4.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2403,18 +2395,18 @@
         <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.06.DataTransformation.md</v>
+        <f t="shared" ref="G41:G49" si="6">IF(ISBLANK(A41),C41&amp;"."&amp;E41&amp;"."&amp;B41&amp;".md",IF(ISBLANK(C41),B41,C41&amp;"."&amp;E41&amp;"."&amp;RIGHT(B41,LEN(B41)-2)))</f>
+        <v>3.05.DataTransformation.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.06.DataTransformation.md</v>
+        <v>Integration3LabExercises/3.05.DataTransformation.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2431,14 +2423,14 @@
         <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.07.Exercise1.md</v>
+        <f t="shared" si="6"/>
+        <v>3.06.Exercise1.md</v>
       </c>
       <c r="H42" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2446,7 +2438,7 @@
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.07.Exercise1.md</v>
+        <v>Integration3LabExercises/3.06.Exercise1.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2463,14 +2455,14 @@
         <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.08.Exercise2.md</v>
+        <f t="shared" si="6"/>
+        <v>3.07.Exercise2.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2478,7 +2470,7 @@
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.08.Exercise2.md</v>
+        <v>Integration3LabExercises/3.07.Exercise2.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2495,14 +2487,14 @@
         <v>60</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.09.Exercise3.md</v>
+        <f t="shared" si="6"/>
+        <v>3.08.Exercise3.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2510,7 +2502,7 @@
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.09.Exercise3.md</v>
+        <v>Integration3LabExercises/3.08.Exercise3.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2527,14 +2519,14 @@
         <v>60</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.10.Exercise4.md</v>
+        <f t="shared" si="6"/>
+        <v>3.09.Exercise4.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2542,7 +2534,7 @@
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.10.Exercise4.md</v>
+        <v>Integration3LabExercises/3.09.Exercise4.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2559,14 +2551,14 @@
         <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.11.Exercise5.md</v>
+        <f t="shared" si="6"/>
+        <v>3.10.Exercise5.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2574,7 +2566,7 @@
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.11.Exercise5.md</v>
+        <v>Integration3LabExercises/3.10.Exercise5.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2591,14 +2583,14 @@
         <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.12.Exercise6.md</v>
+        <f t="shared" si="6"/>
+        <v>3.11.Exercise6.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2606,7 +2598,7 @@
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.12.Exercise6.md</v>
+        <v>Integration3LabExercises/3.11.Exercise6.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2620,14 +2612,14 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f t="shared" ref="G48" si="6">IF(ISBLANK(A48),C48&amp;"."&amp;E48&amp;"."&amp;B48&amp;".md",C48&amp;"."&amp;E48&amp;"."&amp;RIGHT(B48,LEN(B48)-2))</f>
-        <v>3.13.DataIntegrationScenario.md</v>
+        <f t="shared" si="6"/>
+        <v>3.12.DataIntegrationScenario.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" ref="H48" si="7">IF(ISBLANK(A48),"",A48&amp;"/"&amp;B48)</f>
@@ -2635,7 +2627,7 @@
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" ref="I48" si="8">F48&amp;"/"&amp;G48</f>
-        <v>Integration3LabExercises/3.13.DataIntegrationScenario.md</v>
+        <v>Integration3LabExercises/3.12.DataIntegrationScenario.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
@@ -2649,14 +2641,14 @@
         <v>59</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.14.LabQuestions.md</v>
+        <f t="shared" si="6"/>
+        <v>3.13.LabQuestions.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2664,7 +2656,7 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.14.LabQuestions.md</v>
+        <v>Integration3LabExercises/3.13.LabQuestions.md</v>
       </c>
     </row>
   </sheetData>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>includes</t>
+  </si>
+  <si>
+    <t>ScenarioWalkthrough</t>
+  </si>
+  <si>
+    <t>AdditionalProcedures</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1219,11 +1225,11 @@
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H49" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H51" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I49" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I51" si="2">F3&amp;"/"&amp;G3</f>
         <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
@@ -2401,7 +2407,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" ref="G41:G49" si="6">IF(ISBLANK(A41),C41&amp;"."&amp;E41&amp;"."&amp;B41&amp;".md",IF(ISBLANK(C41),B41,C41&amp;"."&amp;E41&amp;"."&amp;RIGHT(B41,LEN(B41)-2)))</f>
+        <f t="shared" ref="G41:G51" si="6">IF(ISBLANK(A41),C41&amp;"."&amp;E41&amp;"."&amp;B41&amp;".md",IF(ISBLANK(C41),B41,C41&amp;"."&amp;E41&amp;"."&amp;RIGHT(B41,LEN(B41)-2)))</f>
         <v>3.05.DataTransformation.md</v>
       </c>
       <c r="I41" s="2" t="str">
@@ -2609,7 +2615,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>26</v>
@@ -2622,23 +2628,23 @@
         <v>3.12.DataIntegrationScenario.md</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f t="shared" ref="H48" si="7">IF(ISBLANK(A48),"",A48&amp;"/"&amp;B48)</f>
+        <f t="shared" ref="H48:H50" si="7">IF(ISBLANK(A48),"",A48&amp;"/"&amp;B48)</f>
         <v/>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" ref="I48" si="8">F48&amp;"/"&amp;G48</f>
+        <f t="shared" ref="I48:I50" si="8">F48&amp;"/"&amp;G48</f>
         <v>Integration3LabExercises/3.12.DataIntegrationScenario.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>27</v>
@@ -2648,15 +2654,73 @@
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>3.13.LabQuestions.md</v>
+        <v>3.13.ScenarioWalkthrough.md</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.13.LabQuestions.md</v>
+        <v>Integration3LabExercises/3.13.ScenarioWalkthrough.md</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>3.14.AdditionalProcedures.md</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.14.AdditionalProcedures.md</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>3.15.LabQuestions.md</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.15.LabQuestions.md</v>
       </c>
     </row>
   </sheetData>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="101">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>AdditionalProcedures</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3.05.WorkspaceComponents.md</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,15 +1227,15 @@
         <v>82</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G34" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",IF(ISBLANK(C3),B3,C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5)))</f>
+        <f t="shared" ref="G3:G11" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",IF(ISBLANK(C3),B3,C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5)))</f>
         <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H51" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H52" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I51" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I52" si="2">F3&amp;"/"&amp;G3</f>
         <v>Integration0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
@@ -1446,10 +1452,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -1465,15 +1471,15 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.02.WorkspaceComponents.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic3WorkspaceDesign/3.05.WorkspaceComponents.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>Integration2LabDemonstration/2.02.WorkspaceComponents.md</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1481,13 +1487,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -1496,16 +1502,16 @@
         <v>84</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.03.CreatingATranslation.md</v>
+        <f t="shared" ref="G12:G35" si="3">IF(ISBLANK(A12),C12&amp;"."&amp;E12&amp;"."&amp;B12&amp;".md",IF(ISBLANK(C12),B12,C12&amp;"."&amp;E12&amp;"."&amp;RIGHT(B12,LEN(B12)-5)))</f>
+        <v>2.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <f t="shared" ref="H12:H35" si="4">IF(ISBLANK(A12),"",A12&amp;"/"&amp;B12)</f>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.03.CreatingATranslation.md</v>
+        <f t="shared" ref="I12:I35" si="5">F12&amp;"/"&amp;G12</f>
+        <v>Integration2LabDemonstration/2.03.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1513,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -1528,16 +1534,16 @@
         <v>84</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.04.TheNewWorkspace.md</v>
+        <f t="shared" si="3"/>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.04.TheNewWorkspace.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1545,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>60</v>
@@ -1560,16 +1566,16 @@
         <v>84</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.05.RunningTheWorkspace.md</v>
+        <f t="shared" si="3"/>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.05.RunningTheWorkspace.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1577,13 +1583,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
@@ -1592,16 +1598,16 @@
         <v>84</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.06.WhatIsDataInspection.md</v>
+        <f t="shared" si="3"/>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.06.WhatIsDataInspection.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1609,13 +1615,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>22</v>
@@ -1624,16 +1630,16 @@
         <v>84</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.07.IntroductionToDataInspector.md</v>
+        <f t="shared" si="3"/>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.07.IntroductionToDataInspector.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1641,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -1656,16 +1662,16 @@
         <v>84</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.08.ViewingData.md</v>
+        <f t="shared" si="3"/>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.08.ViewingData.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1673,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>60</v>
@@ -1688,16 +1694,16 @@
         <v>84</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.09.QueryingData.md</v>
+        <f t="shared" si="3"/>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.09.QueryingData.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1705,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>60</v>
@@ -1720,30 +1726,30 @@
         <v>84</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.10.BackgroundMaps.md</v>
+        <f t="shared" si="3"/>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.10.BackgroundMaps.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
@@ -1752,16 +1758,16 @@
         <v>84</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.11.StructuralTransformation.md</v>
+        <f t="shared" si="3"/>
+        <v>2.11.BackgroundMaps.md</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(ISBLANK(A20),"",A20&amp;"/"&amp;B20)</f>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f>F20&amp;"/"&amp;G20</f>
-        <v>Integration2LabDemonstration/2.11.StructuralTransformation.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.11.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1769,13 +1775,13 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>26</v>
@@ -1784,16 +1790,16 @@
         <v>84</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.12.SchemaEditing.md</v>
+        <f t="shared" si="3"/>
+        <v>2.12.StructuralTransformation.md</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>IF(ISBLANK(A21),"",A21&amp;"/"&amp;B21)</f>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f>F21&amp;"/"&amp;G21</f>
-        <v>Integration2LabDemonstration/2.12.SchemaEditing.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.12.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1801,7 +1807,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>60</v>
@@ -1816,16 +1822,16 @@
         <v>84</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.13.SchemaMapping.md</v>
+        <f t="shared" si="3"/>
+        <v>2.13.SchemaEditing.md</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>IF(ISBLANK(A22),"",A22&amp;"/"&amp;B22)</f>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f>F22&amp;"/"&amp;G22</f>
-        <v>Integration2LabDemonstration/2.13.SchemaMapping.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.13.SchemaEditing.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1833,13 +1839,13 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
@@ -1848,16 +1854,16 @@
         <v>84</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.14.ContentTransformation.md</v>
+        <f t="shared" si="3"/>
+        <v>2.14.SchemaMapping.md</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.14.ContentTransformation.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.14.SchemaMapping.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1865,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -1880,16 +1886,16 @@
         <v>84</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
+        <f t="shared" si="3"/>
+        <v>2.15.ContentTransformation.md</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>IF(ISBLANK(A24),"",A24&amp;"/"&amp;B24)</f>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f>F24&amp;"/"&amp;G24</f>
-        <v>Integration2LabDemonstration/2.15.TransformationWithTransformers.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.15.ContentTransformation.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1897,13 +1903,13 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -1912,16 +1918,16 @@
         <v>84</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.16.TransformersInSeries.md</v>
+        <f t="shared" si="3"/>
+        <v>2.16.TransformationWithTransformers.md</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.16.TransformersInSeries.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.16.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1929,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>60</v>
@@ -1944,16 +1950,16 @@
         <v>84</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.17.TransformersInParallel.md</v>
+        <f t="shared" si="3"/>
+        <v>2.17.TransformersInSeries.md</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.17.TransformersInParallel.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1961,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>60</v>
@@ -1976,16 +1982,16 @@
         <v>84</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
+        <f t="shared" si="3"/>
+        <v>2.18.TransformersInParallel.md</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f>F27&amp;"/"&amp;G27</f>
-        <v>Integration2LabDemonstration/2.18.FeatureCounts.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.18.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1993,13 +1999,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>45</v>
@@ -2008,16 +2014,16 @@
         <v>84</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.19.GroupByProcessing.md</v>
+        <f t="shared" si="3"/>
+        <v>2.19.FeatureCounts.md</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration2LabDemonstration/2.19.GroupByProcessing.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.19.FeatureCounts.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2025,7 +2031,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>60</v>
@@ -2040,24 +2046,24 @@
         <v>84</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.20.CoordinateSystemTransformation.md</v>
+        <f t="shared" si="3"/>
+        <v>2.20.GroupByProcessing.md</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f>IF(ISBLANK(A29),"",A29&amp;"/"&amp;B29)</f>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f>F29&amp;"/"&amp;G29</f>
-        <v>Integration2LabDemonstration/2.20.CoordinateSystemTransformation.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>90</v>
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>60</v>
@@ -2072,24 +2078,24 @@
         <v>84</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.21.IntegratedInspection.md</v>
+        <f t="shared" si="3"/>
+        <v>2.21.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" ref="H30:H34" si="3">IF(ISBLANK(A30),"",A30&amp;"/"&amp;B30)</f>
-        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" ref="I30:I34" si="4">F30&amp;"/"&amp;G30</f>
-        <v>Integration2LabDemonstration/2.21.IntegratedInspection.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.21.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
+      <c r="B31" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>60</v>
@@ -2104,24 +2110,24 @@
         <v>84</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.22.PartialRuns.md</v>
+        <f t="shared" si="3"/>
+        <v>2.22.IntegratedInspection.md</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic3WorkspaceDesign/3.11.PartialRuns.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic3WorkspaceDesign/3.10.IntegratedInspection.md</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.22.PartialRuns.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.22.IntegratedInspection.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
+      <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>60</v>
@@ -2136,16 +2142,16 @@
         <v>84</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.23.Style.md</v>
+        <f t="shared" si="3"/>
+        <v>2.23.PartialRuns.md</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic3WorkspaceDesign/3.11.PartialRuns.md</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.23.Style.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.23.PartialRuns.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2153,13 +2159,13 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>78</v>
@@ -2168,24 +2174,24 @@
         <v>84</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.24.AnnotatingWorkspaces.md</v>
+        <f t="shared" si="3"/>
+        <v>2.24.Style.md</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
+        <f t="shared" si="4"/>
+        <v>DesktopBasic5BestPractice/5.01.Style.md</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.24.AnnotatingWorkspaces.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.24.Style.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>94</v>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>60</v>
@@ -2200,66 +2206,69 @@
         <v>84</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.25.Bookmarks.md</v>
+        <f t="shared" si="3"/>
+        <v>2.25.AnnotatingWorkspaces.md</v>
       </c>
       <c r="H34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DesktopBasic5BestPractice/5.02.AnnotatingWorkspaces.md</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.25.AnnotatingWorkspaces.md</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2" t="str">
         <f t="shared" si="3"/>
+        <v>2.26.Bookmarks.md</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>DesktopBasic5BestPractice/5.03.Bookmarks.md</v>
       </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Integration2LabDemonstration/2.25.Bookmarks.md</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="2" t="str">
-        <f>IF(ISBLANK(A35),C35&amp;"."&amp;E35&amp;"."&amp;B35&amp;".md",IF(ISBLANK(C35),B35,C35&amp;"."&amp;E35&amp;"."&amp;RIGHT(B35,LEN(B35)-2)))</f>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.00.LabExercises.md</v>
+        <f t="shared" si="5"/>
+        <v>Integration2LabDemonstration/2.26.Bookmarks.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" ref="G36:G39" si="5">IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",IF(ISBLANK(C36),B36,C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2)))</f>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f>IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",IF(ISBLANK(C36),B36,C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2)))</f>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2267,39 +2276,36 @@
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>Integration3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
+      <c r="B37" t="s">
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" ref="G37:G40" si="6">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",IF(ISBLANK(C37),B37,C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2)))</f>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v/>
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.02.Exercise1.md</v>
+        <v>Integration3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2307,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>63</v>
@@ -2316,22 +2322,22 @@
         <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.03.Exercise2.md</v>
+        <f t="shared" si="6"/>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.03.Exercise2.md</v>
+        <v>Integration3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2339,7 +2345,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>63</v>
@@ -2348,22 +2354,22 @@
         <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3.04.Exercise3.md</v>
+        <f t="shared" si="6"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.04.Exercise3.md</v>
+        <v>Integration3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2371,80 +2377,80 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>IF(ISBLANK(A40),C40&amp;"."&amp;E40&amp;"."&amp;B40&amp;".md",IF(ISBLANK(C40),B40,C40&amp;"."&amp;E40&amp;"."&amp;RIGHT(B40,LEN(B40)-2)))</f>
-        <v>1.Exercise4.md</v>
+        <f t="shared" si="6"/>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>includes/1.Exercise4.md</v>
+        <v>Integration3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" ref="G41:G51" si="6">IF(ISBLANK(A41),C41&amp;"."&amp;E41&amp;"."&amp;B41&amp;".md",IF(ISBLANK(C41),B41,C41&amp;"."&amp;E41&amp;"."&amp;RIGHT(B41,LEN(B41)-2)))</f>
-        <v>3.05.DataTransformation.md</v>
+        <f>IF(ISBLANK(A41),C41&amp;"."&amp;E41&amp;"."&amp;B41&amp;".md",IF(ISBLANK(C41),B41,C41&amp;"."&amp;E41&amp;"."&amp;RIGHT(B41,LEN(B41)-2)))</f>
+        <v>1.Exercise4.md</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.05.DataTransformation.md</v>
+        <v>includes/1.Exercise4.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.06.Exercise1.md</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <f t="shared" ref="G42:G52" si="7">IF(ISBLANK(A42),C42&amp;"."&amp;E42&amp;"."&amp;B42&amp;".md",IF(ISBLANK(C42),B42,C42&amp;"."&amp;E42&amp;"."&amp;RIGHT(B42,LEN(B42)-2)))</f>
+        <v>3.05.DataTransformation.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.06.Exercise1.md</v>
+        <v>Integration3LabExercises/3.05.DataTransformation.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2452,7 +2458,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>63</v>
@@ -2461,22 +2467,22 @@
         <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.07.Exercise2.md</v>
+        <f t="shared" si="7"/>
+        <v>3.06.Exercise1.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.07.Exercise2.md</v>
+        <v>Integration3LabExercises/3.06.Exercise1.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2484,7 +2490,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>63</v>
@@ -2493,22 +2499,22 @@
         <v>60</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.08.Exercise3.md</v>
+        <f t="shared" si="7"/>
+        <v>3.07.Exercise2.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.08.Exercise3.md</v>
+        <v>Integration3LabExercises/3.07.Exercise2.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2516,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>63</v>
@@ -2525,22 +2531,22 @@
         <v>60</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.09.Exercise4.md</v>
+        <f t="shared" si="7"/>
+        <v>3.08.Exercise3.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.09.Exercise4.md</v>
+        <v>Integration3LabExercises/3.08.Exercise3.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2548,7 +2554,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>63</v>
@@ -2557,22 +2563,22 @@
         <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.10.Exercise5.md</v>
+        <f t="shared" si="7"/>
+        <v>3.09.Exercise4.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.10.Exercise5.md</v>
+        <v>Integration3LabExercises/3.09.Exercise4.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2580,7 +2586,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>63</v>
@@ -2589,136 +2595,168 @@
         <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.11.Exercise6.md</v>
+        <f t="shared" si="7"/>
+        <v>3.10.Exercise5.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Integration3LabExercises/3.11.Exercise6.md</v>
+        <v>Integration3LabExercises/3.10.Exercise5.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3.12.DataIntegrationScenario.md</v>
+        <f t="shared" si="7"/>
+        <v>3.11.Exercise6.md</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f t="shared" ref="H48:H50" si="7">IF(ISBLANK(A48),"",A48&amp;"/"&amp;B48)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" ref="I48:I50" si="8">F48&amp;"/"&amp;G48</f>
-        <v>Integration3LabExercises/3.12.DataIntegrationScenario.md</v>
+        <f t="shared" si="2"/>
+        <v>Integration3LabExercises/3.11.Exercise6.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>3.12.DataIntegrationScenario.md</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f t="shared" ref="H49:H51" si="8">IF(ISBLANK(A49),"",A49&amp;"/"&amp;B49)</f>
+        <v/>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" ref="I49" si="9">F49&amp;"/"&amp;G49</f>
+        <v>Integration3LabExercises/3.12.DataIntegrationScenario.md</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="7"/>
         <v>3.13.ScenarioWalkthrough.md</v>
       </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I49" s="2" t="str">
+      <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.13.ScenarioWalkthrough.md</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="7"/>
         <v>3.14.AdditionalProcedures.md</v>
       </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.14.AdditionalProcedures.md</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="7"/>
         <v>3.15.LabQuestions.md</v>
       </c>
-      <c r="H51" s="2" t="str">
+      <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I51" s="2" t="str">
+      <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Integration3LabExercises/3.15.LabQuestions.md</v>
       </c>
